--- a/Data_frame/balancos_definitivos/NORD3.xlsx
+++ b/Data_frame/balancos_definitivos/NORD3.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>31/12/2008</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>31/03/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36535</v>
+        <v>36341</v>
       </c>
       <c r="C2" t="n">
-        <v>36470</v>
+        <v>36158</v>
       </c>
       <c r="D2" t="n">
-        <v>36317</v>
+        <v>27535</v>
       </c>
       <c r="E2" t="n">
-        <v>36341</v>
+        <v>27390</v>
       </c>
       <c r="F2" t="n">
-        <v>36158</v>
+        <v>27345</v>
       </c>
       <c r="G2" t="n">
-        <v>27535</v>
+        <v>27437</v>
       </c>
       <c r="H2" t="n">
-        <v>27390</v>
+        <v>24500</v>
       </c>
       <c r="I2" t="n">
-        <v>27345</v>
+        <v>24985</v>
       </c>
       <c r="J2" t="n">
-        <v>27437</v>
+        <v>24923</v>
       </c>
       <c r="K2" t="n">
-        <v>24500</v>
+        <v>24898</v>
       </c>
       <c r="L2" t="n">
-        <v>24985</v>
+        <v>25125</v>
       </c>
       <c r="M2" t="n">
-        <v>24923</v>
+        <v>25199</v>
       </c>
       <c r="N2" t="n">
-        <v>24898</v>
+        <v>24929</v>
       </c>
       <c r="O2" t="n">
-        <v>25125</v>
+        <v>24795</v>
       </c>
       <c r="P2" t="n">
-        <v>25199</v>
+        <v>25154</v>
       </c>
       <c r="Q2" t="n">
-        <v>24929</v>
+        <v>25048</v>
       </c>
       <c r="R2" t="n">
-        <v>24795</v>
+        <v>24777</v>
       </c>
       <c r="S2" t="n">
-        <v>25154</v>
+        <v>24543</v>
       </c>
       <c r="T2" t="n">
-        <v>25048</v>
+        <v>24419</v>
       </c>
       <c r="U2" t="n">
-        <v>24777</v>
+        <v>24521</v>
       </c>
       <c r="V2" t="n">
-        <v>24543</v>
+        <v>24355</v>
       </c>
       <c r="W2" t="n">
-        <v>24419</v>
+        <v>23448</v>
       </c>
       <c r="X2" t="n">
-        <v>24521</v>
+        <v>17082</v>
       </c>
       <c r="Y2" t="n">
-        <v>24355</v>
+        <v>16611</v>
       </c>
       <c r="Z2" t="n">
-        <v>23448</v>
+        <v>16347</v>
       </c>
       <c r="AA2" t="n">
-        <v>17082</v>
+        <v>16094</v>
       </c>
       <c r="AB2" t="n">
-        <v>16611</v>
+        <v>16448</v>
       </c>
       <c r="AC2" t="n">
-        <v>16347</v>
+        <v>16243</v>
       </c>
       <c r="AD2" t="n">
-        <v>16094</v>
+        <v>14933</v>
       </c>
       <c r="AE2" t="n">
-        <v>16448</v>
+        <v>14883</v>
       </c>
       <c r="AF2" t="n">
-        <v>16243</v>
+        <v>15589</v>
       </c>
       <c r="AG2" t="n">
-        <v>14933</v>
+        <v>15596</v>
       </c>
       <c r="AH2" t="n">
-        <v>14883</v>
+        <v>15579</v>
       </c>
       <c r="AI2" t="n">
-        <v>15589</v>
+        <v>15525</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15596</v>
+        <v>15970</v>
       </c>
       <c r="AK2" t="n">
-        <v>15579</v>
+        <v>15977</v>
       </c>
       <c r="AL2" t="n">
-        <v>15525</v>
+        <v>16014</v>
       </c>
       <c r="AM2" t="n">
-        <v>15970</v>
+        <v>16043</v>
       </c>
       <c r="AN2" t="n">
-        <v>15977</v>
+        <v>16258</v>
       </c>
       <c r="AO2" t="n">
-        <v>16014</v>
+        <v>16299</v>
       </c>
       <c r="AP2" t="n">
-        <v>16043</v>
+        <v>16274</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16258</v>
+        <v>16460</v>
       </c>
       <c r="AR2" t="n">
-        <v>16299</v>
+        <v>16769</v>
       </c>
       <c r="AS2" t="n">
-        <v>16274</v>
+        <v>17023</v>
       </c>
       <c r="AT2" t="n">
-        <v>16460</v>
+        <v>16996</v>
       </c>
       <c r="AU2" t="n">
-        <v>16769</v>
+        <v>17060</v>
       </c>
       <c r="AV2" t="n">
-        <v>17023</v>
+        <v>17225</v>
       </c>
       <c r="AW2" t="n">
-        <v>16996</v>
+        <v>17303</v>
       </c>
       <c r="AX2" t="n">
-        <v>17060</v>
+        <v>17351</v>
       </c>
       <c r="AY2" t="n">
-        <v>17225</v>
+        <v>17555</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17303</v>
+        <v>17661</v>
       </c>
       <c r="BA2" t="n">
-        <v>17351</v>
+        <v>17577</v>
       </c>
       <c r="BB2" t="n">
-        <v>17555</v>
+        <v>17418</v>
       </c>
       <c r="BC2" t="n">
-        <v>17661</v>
+        <v>17397</v>
       </c>
       <c r="BD2" t="n">
-        <v>17577</v>
+        <v>18161</v>
       </c>
       <c r="BE2" t="n">
-        <v>17418</v>
+        <v>18254</v>
       </c>
       <c r="BF2" t="n">
-        <v>17397</v>
+        <v>18368</v>
       </c>
       <c r="BG2" t="n">
-        <v>18161</v>
+        <v>18595</v>
       </c>
       <c r="BH2" t="n">
-        <v>18254</v>
+        <v>19331</v>
       </c>
       <c r="BI2" t="n">
-        <v>18368</v>
+        <v>19163</v>
       </c>
     </row>
     <row r="3">
@@ -934,184 +934,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>1183</v>
       </c>
       <c r="C3" t="n">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="D3" t="n">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="E3" t="n">
-        <v>1183</v>
+        <v>938</v>
       </c>
       <c r="F3" t="n">
-        <v>1087</v>
+        <v>989</v>
       </c>
       <c r="G3" t="n">
-        <v>984</v>
+        <v>1199</v>
       </c>
       <c r="H3" t="n">
-        <v>938</v>
+        <v>1304</v>
       </c>
       <c r="I3" t="n">
-        <v>989</v>
+        <v>1320</v>
       </c>
       <c r="J3" t="n">
-        <v>1199</v>
+        <v>1359</v>
       </c>
       <c r="K3" t="n">
-        <v>1304</v>
+        <v>1433</v>
       </c>
       <c r="L3" t="n">
-        <v>1320</v>
+        <v>1480</v>
       </c>
       <c r="M3" t="n">
-        <v>1359</v>
+        <v>1655</v>
       </c>
       <c r="N3" t="n">
-        <v>1433</v>
+        <v>1627</v>
       </c>
       <c r="O3" t="n">
-        <v>1480</v>
+        <v>1594</v>
       </c>
       <c r="P3" t="n">
-        <v>1655</v>
+        <v>1733</v>
       </c>
       <c r="Q3" t="n">
-        <v>1627</v>
+        <v>1750</v>
       </c>
       <c r="R3" t="n">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="S3" t="n">
-        <v>1733</v>
+        <v>1485</v>
       </c>
       <c r="T3" t="n">
+        <v>1375</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1599</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1555</v>
+      </c>
+      <c r="W3" t="n">
+        <v>767</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1345</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>997</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>855</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>725</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>736</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>646</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>521</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>506</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>513</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>496</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>508</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>545</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>574</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>562</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>603</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>578</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>763</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>798</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1056</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1029</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1093</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1481</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1382</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1223</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1202</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1123</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1211</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1319</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1540</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1731</v>
+      </c>
+      <c r="BI3" t="n">
         <v>1750</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1597</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1485</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1375</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1599</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1555</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>767</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1345</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>997</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>855</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>725</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>736</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>646</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>521</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>510</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>506</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>513</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>496</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>499</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>508</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>545</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>574</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>562</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>603</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>578</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>763</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>798</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1056</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1029</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1093</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1154</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1229</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1277</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1481</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1466</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1382</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1223</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>1202</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>1123</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>1211</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1319</v>
       </c>
     </row>
     <row r="4">
@@ -1121,184 +1121,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="C4" t="n">
+        <v>531</v>
+      </c>
+      <c r="D4" t="n">
+        <v>428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>378</v>
+      </c>
+      <c r="F4" t="n">
+        <v>423</v>
+      </c>
+      <c r="G4" t="n">
+        <v>641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>729</v>
+      </c>
+      <c r="I4" t="n">
+        <v>786</v>
+      </c>
+      <c r="J4" t="n">
+        <v>836</v>
+      </c>
+      <c r="K4" t="n">
+        <v>904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>801</v>
+      </c>
+      <c r="M4" t="n">
+        <v>400</v>
+      </c>
+      <c r="N4" t="n">
+        <v>441</v>
+      </c>
+      <c r="O4" t="n">
+        <v>473</v>
+      </c>
+      <c r="P4" t="n">
         <v>556</v>
       </c>
-      <c r="D4" t="n">
-        <v>503</v>
-      </c>
-      <c r="E4" t="n">
-        <v>631</v>
-      </c>
-      <c r="F4" t="n">
-        <v>531</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428</v>
-      </c>
-      <c r="H4" t="n">
-        <v>378</v>
-      </c>
-      <c r="I4" t="n">
-        <v>423</v>
-      </c>
-      <c r="J4" t="n">
-        <v>641</v>
-      </c>
-      <c r="K4" t="n">
-        <v>729</v>
-      </c>
-      <c r="L4" t="n">
-        <v>786</v>
-      </c>
-      <c r="M4" t="n">
-        <v>836</v>
-      </c>
-      <c r="N4" t="n">
-        <v>904</v>
-      </c>
-      <c r="O4" t="n">
-        <v>801</v>
-      </c>
-      <c r="P4" t="n">
-        <v>400</v>
-      </c>
       <c r="Q4" t="n">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="R4" t="n">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>270</v>
       </c>
       <c r="T4" t="n">
-        <v>588</v>
+        <v>183</v>
       </c>
       <c r="U4" t="n">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="V4" t="n">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="W4" t="n">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="X4" t="n">
-        <v>421</v>
+        <v>866</v>
       </c>
       <c r="Y4" t="n">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="Z4" t="n">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="AA4" t="n">
-        <v>866</v>
+        <v>244</v>
       </c>
       <c r="AB4" t="n">
-        <v>516</v>
+        <v>256</v>
       </c>
       <c r="AC4" t="n">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="n">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>3</v>
       </c>
       <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>82</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>176</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>210</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>241</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
         <v>8</v>
       </c>
-      <c r="AK4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="BD4" t="n">
+        <v>32</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH4" t="n">
         <v>26</v>
       </c>
-      <c r="AR4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>47</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>82</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>176</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>241</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>32</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>11</v>
-      </c>
       <c r="BI4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1498,181 +1498,181 @@
         <v>552</v>
       </c>
       <c r="C6" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D6" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E6" t="n">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F6" t="n">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="G6" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H6" t="n">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="I6" t="n">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="J6" t="n">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="K6" t="n">
-        <v>575</v>
+        <v>529</v>
       </c>
       <c r="L6" t="n">
-        <v>534</v>
+        <v>679</v>
       </c>
       <c r="M6" t="n">
-        <v>523</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="n">
-        <v>529</v>
+        <v>1186</v>
       </c>
       <c r="O6" t="n">
-        <v>679</v>
+        <v>1121</v>
       </c>
       <c r="P6" t="n">
-        <v>1255</v>
+        <v>1177</v>
       </c>
       <c r="Q6" t="n">
-        <v>1186</v>
+        <v>1162</v>
       </c>
       <c r="R6" t="n">
-        <v>1121</v>
+        <v>1191</v>
       </c>
       <c r="S6" t="n">
-        <v>1177</v>
+        <v>1215</v>
       </c>
       <c r="T6" t="n">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="U6" t="n">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="V6" t="n">
-        <v>1215</v>
+        <v>1152</v>
       </c>
       <c r="W6" t="n">
-        <v>1192</v>
+        <v>474</v>
       </c>
       <c r="X6" t="n">
-        <v>1178</v>
+        <v>479</v>
       </c>
       <c r="Y6" t="n">
-        <v>1152</v>
+        <v>481</v>
       </c>
       <c r="Z6" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AA6" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AB6" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC6" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AD6" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AE6" t="n">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="AF6" t="n">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="AG6" t="n">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="AH6" t="n">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AI6" t="n">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AJ6" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="AL6" t="n">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="AN6" t="n">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="AO6" t="n">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="AP6" t="n">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="AQ6" t="n">
-        <v>536</v>
+        <v>681</v>
       </c>
       <c r="AR6" t="n">
-        <v>580</v>
+        <v>752</v>
       </c>
       <c r="AS6" t="n">
-        <v>531</v>
+        <v>880</v>
       </c>
       <c r="AT6" t="n">
-        <v>681</v>
+        <v>819</v>
       </c>
       <c r="AU6" t="n">
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="AV6" t="n">
-        <v>880</v>
+        <v>1128</v>
       </c>
       <c r="AW6" t="n">
-        <v>819</v>
+        <v>1210</v>
       </c>
       <c r="AX6" t="n">
-        <v>852</v>
+        <v>1264</v>
       </c>
       <c r="AY6" t="n">
-        <v>1128</v>
+        <v>1462</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1210</v>
+        <v>1461</v>
       </c>
       <c r="BA6" t="n">
-        <v>1264</v>
+        <v>1362</v>
       </c>
       <c r="BB6" t="n">
-        <v>1462</v>
+        <v>1219</v>
       </c>
       <c r="BC6" t="n">
-        <v>1461</v>
+        <v>1194</v>
       </c>
       <c r="BD6" t="n">
-        <v>1362</v>
+        <v>1091</v>
       </c>
       <c r="BE6" t="n">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="BF6" t="n">
-        <v>1194</v>
+        <v>1301</v>
       </c>
       <c r="BG6" t="n">
-        <v>1091</v>
+        <v>1527</v>
       </c>
       <c r="BH6" t="n">
-        <v>1200</v>
+        <v>1705</v>
       </c>
       <c r="BI6" t="n">
-        <v>1301</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="7">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -2617,184 +2617,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24177</v>
+        <v>24183</v>
       </c>
       <c r="C12" t="n">
-        <v>24186</v>
+        <v>24197</v>
       </c>
       <c r="D12" t="n">
-        <v>24187</v>
+        <v>15777</v>
       </c>
       <c r="E12" t="n">
-        <v>24183</v>
+        <v>15779</v>
       </c>
       <c r="F12" t="n">
-        <v>24197</v>
+        <v>15784</v>
       </c>
       <c r="G12" t="n">
-        <v>15777</v>
+        <v>15767</v>
       </c>
       <c r="H12" t="n">
-        <v>15779</v>
+        <v>13029</v>
       </c>
       <c r="I12" t="n">
-        <v>15784</v>
+        <v>13599</v>
       </c>
       <c r="J12" t="n">
-        <v>15767</v>
+        <v>13599</v>
       </c>
       <c r="K12" t="n">
-        <v>13029</v>
+        <v>13601</v>
       </c>
       <c r="L12" t="n">
-        <v>13599</v>
+        <v>13882</v>
       </c>
       <c r="M12" t="n">
-        <v>13599</v>
+        <v>13882</v>
       </c>
       <c r="N12" t="n">
-        <v>13601</v>
+        <v>13742</v>
       </c>
       <c r="O12" t="n">
-        <v>13882</v>
+        <v>13742</v>
       </c>
       <c r="P12" t="n">
-        <v>13882</v>
+        <v>14062</v>
       </c>
       <c r="Q12" t="n">
-        <v>13742</v>
+        <v>14062</v>
       </c>
       <c r="R12" t="n">
-        <v>13742</v>
+        <v>14063</v>
       </c>
       <c r="S12" t="n">
-        <v>14062</v>
+        <v>14064</v>
       </c>
       <c r="T12" t="n">
-        <v>14062</v>
+        <v>14481</v>
       </c>
       <c r="U12" t="n">
-        <v>14063</v>
+        <v>14482</v>
       </c>
       <c r="V12" t="n">
-        <v>14064</v>
+        <v>14482</v>
       </c>
       <c r="W12" t="n">
-        <v>14481</v>
+        <v>14486</v>
       </c>
       <c r="X12" t="n">
-        <v>14482</v>
+        <v>7665</v>
       </c>
       <c r="Y12" t="n">
-        <v>14482</v>
+        <v>7665</v>
       </c>
       <c r="Z12" t="n">
-        <v>14486</v>
+        <v>7665</v>
       </c>
       <c r="AA12" t="n">
         <v>7665</v>
       </c>
       <c r="AB12" t="n">
-        <v>7665</v>
+        <v>8130</v>
       </c>
       <c r="AC12" t="n">
-        <v>7665</v>
+        <v>8138</v>
       </c>
       <c r="AD12" t="n">
-        <v>7665</v>
+        <v>7075</v>
       </c>
       <c r="AE12" t="n">
-        <v>8130</v>
+        <v>7075</v>
       </c>
       <c r="AF12" t="n">
-        <v>8138</v>
+        <v>7785</v>
       </c>
       <c r="AG12" t="n">
-        <v>7075</v>
+        <v>7785</v>
       </c>
       <c r="AH12" t="n">
-        <v>7075</v>
+        <v>7785</v>
       </c>
       <c r="AI12" t="n">
-        <v>7785</v>
+        <v>7729</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7785</v>
+        <v>8172</v>
       </c>
       <c r="AK12" t="n">
-        <v>7785</v>
+        <v>8172</v>
       </c>
       <c r="AL12" t="n">
-        <v>7729</v>
+        <v>8172</v>
       </c>
       <c r="AM12" t="n">
         <v>8172</v>
       </c>
       <c r="AN12" t="n">
-        <v>8172</v>
+        <v>8399</v>
       </c>
       <c r="AO12" t="n">
-        <v>8172</v>
+        <v>8399</v>
       </c>
       <c r="AP12" t="n">
-        <v>8172</v>
+        <v>8399</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8399</v>
+        <v>8400</v>
       </c>
       <c r="AR12" t="n">
-        <v>8399</v>
+        <v>8674</v>
       </c>
       <c r="AS12" t="n">
-        <v>8399</v>
+        <v>8670</v>
       </c>
       <c r="AT12" t="n">
-        <v>8400</v>
+        <v>8670</v>
       </c>
       <c r="AU12" t="n">
-        <v>8674</v>
+        <v>8670</v>
       </c>
       <c r="AV12" t="n">
-        <v>8670</v>
+        <v>8774</v>
       </c>
       <c r="AW12" t="n">
-        <v>8670</v>
+        <v>8777</v>
       </c>
       <c r="AX12" t="n">
-        <v>8670</v>
+        <v>8777</v>
       </c>
       <c r="AY12" t="n">
-        <v>8774</v>
+        <v>8777</v>
       </c>
       <c r="AZ12" t="n">
-        <v>8777</v>
+        <v>8898</v>
       </c>
       <c r="BA12" t="n">
-        <v>8777</v>
+        <v>8898</v>
       </c>
       <c r="BB12" t="n">
-        <v>8777</v>
+        <v>8898</v>
       </c>
       <c r="BC12" t="n">
         <v>8898</v>
       </c>
       <c r="BD12" t="n">
-        <v>8898</v>
+        <v>9741</v>
       </c>
       <c r="BE12" t="n">
-        <v>8898</v>
+        <v>9746</v>
       </c>
       <c r="BF12" t="n">
-        <v>8898</v>
+        <v>9752</v>
       </c>
       <c r="BG12" t="n">
-        <v>9741</v>
+        <v>9758</v>
       </c>
       <c r="BH12" t="n">
-        <v>9746</v>
+        <v>10303</v>
       </c>
       <c r="BI12" t="n">
-        <v>9752</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="13">
@@ -3178,31 +3178,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24177</v>
+        <v>24183</v>
       </c>
       <c r="C15" t="n">
-        <v>24186</v>
+        <v>24197</v>
       </c>
       <c r="D15" t="n">
-        <v>24187</v>
+        <v>15777</v>
       </c>
       <c r="E15" t="n">
-        <v>24183</v>
+        <v>15779</v>
       </c>
       <c r="F15" t="n">
-        <v>24197</v>
+        <v>15784</v>
       </c>
       <c r="G15" t="n">
-        <v>15777</v>
+        <v>15767</v>
       </c>
       <c r="H15" t="n">
-        <v>15779</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15784</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15767</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -4318,121 +4318,121 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>13029</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13599</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>13599</v>
       </c>
       <c r="K21" t="n">
-        <v>13029</v>
+        <v>13601</v>
       </c>
       <c r="L21" t="n">
-        <v>13599</v>
+        <v>13882</v>
       </c>
       <c r="M21" t="n">
-        <v>13599</v>
+        <v>13882</v>
       </c>
       <c r="N21" t="n">
-        <v>13601</v>
+        <v>13742</v>
       </c>
       <c r="O21" t="n">
-        <v>13882</v>
+        <v>13742</v>
       </c>
       <c r="P21" t="n">
-        <v>13882</v>
+        <v>14062</v>
       </c>
       <c r="Q21" t="n">
-        <v>13742</v>
+        <v>14062</v>
       </c>
       <c r="R21" t="n">
-        <v>13742</v>
+        <v>14063</v>
       </c>
       <c r="S21" t="n">
-        <v>14062</v>
+        <v>14064</v>
       </c>
       <c r="T21" t="n">
-        <v>14062</v>
+        <v>14481</v>
       </c>
       <c r="U21" t="n">
-        <v>14063</v>
+        <v>14482</v>
       </c>
       <c r="V21" t="n">
-        <v>14064</v>
+        <v>14482</v>
       </c>
       <c r="W21" t="n">
-        <v>14481</v>
+        <v>14486</v>
       </c>
       <c r="X21" t="n">
-        <v>14482</v>
+        <v>7665</v>
       </c>
       <c r="Y21" t="n">
-        <v>14482</v>
+        <v>7665</v>
       </c>
       <c r="Z21" t="n">
-        <v>14486</v>
+        <v>7665</v>
       </c>
       <c r="AA21" t="n">
         <v>7665</v>
       </c>
       <c r="AB21" t="n">
-        <v>7665</v>
+        <v>8130</v>
       </c>
       <c r="AC21" t="n">
-        <v>7665</v>
+        <v>8138</v>
       </c>
       <c r="AD21" t="n">
-        <v>7665</v>
+        <v>7075</v>
       </c>
       <c r="AE21" t="n">
-        <v>8130</v>
+        <v>7075</v>
       </c>
       <c r="AF21" t="n">
-        <v>8138</v>
+        <v>7785</v>
       </c>
       <c r="AG21" t="n">
-        <v>7075</v>
+        <v>7785</v>
       </c>
       <c r="AH21" t="n">
-        <v>7075</v>
+        <v>7785</v>
       </c>
       <c r="AI21" t="n">
-        <v>7785</v>
+        <v>7729</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7785</v>
+        <v>8172</v>
       </c>
       <c r="AK21" t="n">
-        <v>7785</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>7729</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>8172</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>8399</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>8399</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="AR21" t="n">
-        <v>8399</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>8399</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4674,112 +4674,112 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11226</v>
+        <v>10923</v>
       </c>
       <c r="C23" t="n">
-        <v>11125</v>
+        <v>10822</v>
       </c>
       <c r="D23" t="n">
-        <v>11024</v>
+        <v>10722</v>
       </c>
       <c r="E23" t="n">
-        <v>10923</v>
+        <v>10621</v>
       </c>
       <c r="F23" t="n">
-        <v>10822</v>
+        <v>10520</v>
       </c>
       <c r="G23" t="n">
-        <v>10722</v>
+        <v>10419</v>
       </c>
       <c r="H23" t="n">
-        <v>10621</v>
+        <v>10115</v>
       </c>
       <c r="I23" t="n">
-        <v>10520</v>
+        <v>10014</v>
       </c>
       <c r="J23" t="n">
-        <v>10419</v>
+        <v>9913</v>
       </c>
       <c r="K23" t="n">
-        <v>10115</v>
+        <v>9812</v>
       </c>
       <c r="L23" t="n">
-        <v>10014</v>
+        <v>9711</v>
       </c>
       <c r="M23" t="n">
-        <v>9913</v>
+        <v>9610</v>
       </c>
       <c r="N23" t="n">
-        <v>9812</v>
+        <v>9508</v>
       </c>
       <c r="O23" t="n">
-        <v>9711</v>
+        <v>9407</v>
       </c>
       <c r="P23" t="n">
-        <v>9610</v>
+        <v>9307</v>
       </c>
       <c r="Q23" t="n">
-        <v>9508</v>
+        <v>9184</v>
       </c>
       <c r="R23" t="n">
-        <v>9407</v>
+        <v>9065</v>
       </c>
       <c r="S23" t="n">
-        <v>9307</v>
+        <v>8942</v>
       </c>
       <c r="T23" t="n">
-        <v>9184</v>
+        <v>8511</v>
       </c>
       <c r="U23" t="n">
-        <v>9065</v>
+        <v>8388</v>
       </c>
       <c r="V23" t="n">
-        <v>8942</v>
+        <v>8266</v>
       </c>
       <c r="W23" t="n">
-        <v>8511</v>
+        <v>8143</v>
       </c>
       <c r="X23" t="n">
-        <v>8388</v>
+        <v>8020</v>
       </c>
       <c r="Y23" t="n">
-        <v>8266</v>
+        <v>7897</v>
       </c>
       <c r="Z23" t="n">
-        <v>8143</v>
+        <v>7775</v>
       </c>
       <c r="AA23" t="n">
-        <v>8020</v>
+        <v>7652</v>
       </c>
       <c r="AB23" t="n">
-        <v>7897</v>
+        <v>7530</v>
       </c>
       <c r="AC23" t="n">
-        <v>7775</v>
+        <v>7407</v>
       </c>
       <c r="AD23" t="n">
-        <v>7652</v>
+        <v>7285</v>
       </c>
       <c r="AE23" t="n">
-        <v>7530</v>
+        <v>7246</v>
       </c>
       <c r="AF23" t="n">
-        <v>7407</v>
+        <v>7246</v>
       </c>
       <c r="AG23" t="n">
-        <v>7285</v>
+        <v>7246</v>
       </c>
       <c r="AH23" t="n">
         <v>7246</v>
       </c>
       <c r="AI23" t="n">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="AK23" t="n">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="AL23" t="n">
         <v>7245</v>
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36535</v>
+        <v>36341</v>
       </c>
       <c r="C26" t="n">
-        <v>36470</v>
+        <v>36158</v>
       </c>
       <c r="D26" t="n">
-        <v>36317</v>
+        <v>27535</v>
       </c>
       <c r="E26" t="n">
-        <v>36341</v>
+        <v>27390</v>
       </c>
       <c r="F26" t="n">
-        <v>36158</v>
+        <v>27345</v>
       </c>
       <c r="G26" t="n">
-        <v>27535</v>
+        <v>27437</v>
       </c>
       <c r="H26" t="n">
-        <v>27390</v>
+        <v>24500</v>
       </c>
       <c r="I26" t="n">
-        <v>27345</v>
+        <v>24985</v>
       </c>
       <c r="J26" t="n">
-        <v>27437</v>
+        <v>24923</v>
       </c>
       <c r="K26" t="n">
-        <v>24500</v>
+        <v>24898</v>
       </c>
       <c r="L26" t="n">
-        <v>24985</v>
+        <v>25125</v>
       </c>
       <c r="M26" t="n">
-        <v>24923</v>
+        <v>25199</v>
       </c>
       <c r="N26" t="n">
-        <v>24898</v>
+        <v>24929</v>
       </c>
       <c r="O26" t="n">
-        <v>25125</v>
+        <v>24795</v>
       </c>
       <c r="P26" t="n">
-        <v>25199</v>
+        <v>25154</v>
       </c>
       <c r="Q26" t="n">
-        <v>24929</v>
+        <v>25048</v>
       </c>
       <c r="R26" t="n">
-        <v>24795</v>
+        <v>24777</v>
       </c>
       <c r="S26" t="n">
-        <v>25154</v>
+        <v>24543</v>
       </c>
       <c r="T26" t="n">
-        <v>25048</v>
+        <v>24419</v>
       </c>
       <c r="U26" t="n">
-        <v>24777</v>
+        <v>24521</v>
       </c>
       <c r="V26" t="n">
-        <v>24543</v>
+        <v>24355</v>
       </c>
       <c r="W26" t="n">
-        <v>24419</v>
+        <v>23448</v>
       </c>
       <c r="X26" t="n">
-        <v>24521</v>
+        <v>17082</v>
       </c>
       <c r="Y26" t="n">
-        <v>24355</v>
+        <v>16611</v>
       </c>
       <c r="Z26" t="n">
-        <v>23448</v>
+        <v>16347</v>
       </c>
       <c r="AA26" t="n">
-        <v>17082</v>
+        <v>16094</v>
       </c>
       <c r="AB26" t="n">
-        <v>16611</v>
+        <v>16448</v>
       </c>
       <c r="AC26" t="n">
-        <v>16347</v>
+        <v>16243</v>
       </c>
       <c r="AD26" t="n">
-        <v>16094</v>
+        <v>14933</v>
       </c>
       <c r="AE26" t="n">
-        <v>16448</v>
+        <v>14883</v>
       </c>
       <c r="AF26" t="n">
-        <v>16243</v>
+        <v>15589</v>
       </c>
       <c r="AG26" t="n">
-        <v>14933</v>
+        <v>15596</v>
       </c>
       <c r="AH26" t="n">
-        <v>14883</v>
+        <v>15579</v>
       </c>
       <c r="AI26" t="n">
-        <v>15589</v>
+        <v>15525</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15596</v>
+        <v>15970</v>
       </c>
       <c r="AK26" t="n">
-        <v>15579</v>
+        <v>15977</v>
       </c>
       <c r="AL26" t="n">
-        <v>15525</v>
+        <v>16014</v>
       </c>
       <c r="AM26" t="n">
-        <v>15970</v>
+        <v>16043</v>
       </c>
       <c r="AN26" t="n">
-        <v>15977</v>
+        <v>16258</v>
       </c>
       <c r="AO26" t="n">
-        <v>16014</v>
+        <v>16299</v>
       </c>
       <c r="AP26" t="n">
-        <v>16043</v>
+        <v>16274</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16258</v>
+        <v>16460</v>
       </c>
       <c r="AR26" t="n">
-        <v>16299</v>
+        <v>16769</v>
       </c>
       <c r="AS26" t="n">
-        <v>16274</v>
+        <v>17023</v>
       </c>
       <c r="AT26" t="n">
-        <v>16460</v>
+        <v>16996</v>
       </c>
       <c r="AU26" t="n">
-        <v>16769</v>
+        <v>17060</v>
       </c>
       <c r="AV26" t="n">
-        <v>17023</v>
+        <v>17225</v>
       </c>
       <c r="AW26" t="n">
-        <v>16996</v>
+        <v>17303</v>
       </c>
       <c r="AX26" t="n">
-        <v>17060</v>
+        <v>17351</v>
       </c>
       <c r="AY26" t="n">
-        <v>17225</v>
+        <v>17555</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17303</v>
+        <v>17661</v>
       </c>
       <c r="BA26" t="n">
-        <v>17351</v>
+        <v>17577</v>
       </c>
       <c r="BB26" t="n">
-        <v>17555</v>
+        <v>17418</v>
       </c>
       <c r="BC26" t="n">
-        <v>17661</v>
+        <v>17397</v>
       </c>
       <c r="BD26" t="n">
-        <v>17577</v>
+        <v>18161</v>
       </c>
       <c r="BE26" t="n">
-        <v>17418</v>
+        <v>18254</v>
       </c>
       <c r="BF26" t="n">
-        <v>17397</v>
+        <v>18368</v>
       </c>
       <c r="BG26" t="n">
-        <v>18161</v>
+        <v>18595</v>
       </c>
       <c r="BH26" t="n">
-        <v>18254</v>
+        <v>19331</v>
       </c>
       <c r="BI26" t="n">
-        <v>18368</v>
+        <v>19163</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39450</v>
+        <v>39641</v>
       </c>
       <c r="C27" t="n">
-        <v>40156</v>
+        <v>40185</v>
       </c>
       <c r="D27" t="n">
-        <v>40037</v>
+        <v>40007</v>
       </c>
       <c r="E27" t="n">
-        <v>39641</v>
+        <v>40461</v>
       </c>
       <c r="F27" t="n">
-        <v>40185</v>
+        <v>41128</v>
       </c>
       <c r="G27" t="n">
-        <v>40007</v>
+        <v>41096</v>
       </c>
       <c r="H27" t="n">
-        <v>40461</v>
+        <v>41195</v>
       </c>
       <c r="I27" t="n">
-        <v>41128</v>
+        <v>41333</v>
       </c>
       <c r="J27" t="n">
-        <v>41096</v>
+        <v>41367</v>
       </c>
       <c r="K27" t="n">
-        <v>41195</v>
+        <v>40998</v>
       </c>
       <c r="L27" t="n">
-        <v>41333</v>
+        <v>42419</v>
       </c>
       <c r="M27" t="n">
-        <v>41367</v>
+        <v>42411</v>
       </c>
       <c r="N27" t="n">
-        <v>40998</v>
+        <v>42239</v>
       </c>
       <c r="O27" t="n">
-        <v>42419</v>
+        <v>42300</v>
       </c>
       <c r="P27" t="n">
-        <v>42411</v>
+        <v>48741</v>
       </c>
       <c r="Q27" t="n">
-        <v>42239</v>
+        <v>48784</v>
       </c>
       <c r="R27" t="n">
-        <v>42300</v>
+        <v>48870</v>
       </c>
       <c r="S27" t="n">
-        <v>48741</v>
+        <v>48637</v>
       </c>
       <c r="T27" t="n">
-        <v>48784</v>
+        <v>53677</v>
       </c>
       <c r="U27" t="n">
-        <v>48870</v>
+        <v>53795</v>
       </c>
       <c r="V27" t="n">
-        <v>48637</v>
+        <v>53884</v>
       </c>
       <c r="W27" t="n">
-        <v>53677</v>
+        <v>53150</v>
       </c>
       <c r="X27" t="n">
-        <v>53795</v>
+        <v>50185</v>
       </c>
       <c r="Y27" t="n">
-        <v>53884</v>
+        <v>50733</v>
       </c>
       <c r="Z27" t="n">
-        <v>53150</v>
+        <v>50352</v>
       </c>
       <c r="AA27" t="n">
-        <v>50185</v>
+        <v>50949</v>
       </c>
       <c r="AB27" t="n">
-        <v>50733</v>
+        <v>51185</v>
       </c>
       <c r="AC27" t="n">
-        <v>50352</v>
+        <v>51226</v>
       </c>
       <c r="AD27" t="n">
-        <v>50949</v>
+        <v>51173</v>
       </c>
       <c r="AE27" t="n">
-        <v>51185</v>
+        <v>51035</v>
       </c>
       <c r="AF27" t="n">
-        <v>51226</v>
+        <v>51176</v>
       </c>
       <c r="AG27" t="n">
-        <v>51173</v>
+        <v>51955</v>
       </c>
       <c r="AH27" t="n">
-        <v>51035</v>
+        <v>52023</v>
       </c>
       <c r="AI27" t="n">
-        <v>51176</v>
+        <v>52102</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51955</v>
+        <v>52281</v>
       </c>
       <c r="AK27" t="n">
-        <v>52023</v>
+        <v>52115</v>
       </c>
       <c r="AL27" t="n">
-        <v>52102</v>
+        <v>52819</v>
       </c>
       <c r="AM27" t="n">
-        <v>52281</v>
+        <v>52976</v>
       </c>
       <c r="AN27" t="n">
-        <v>52115</v>
+        <v>53012</v>
       </c>
       <c r="AO27" t="n">
-        <v>52819</v>
+        <v>52951</v>
       </c>
       <c r="AP27" t="n">
-        <v>52976</v>
+        <v>53012</v>
       </c>
       <c r="AQ27" t="n">
-        <v>53012</v>
+        <v>53081</v>
       </c>
       <c r="AR27" t="n">
-        <v>52951</v>
+        <v>49256</v>
       </c>
       <c r="AS27" t="n">
-        <v>53012</v>
+        <v>49225</v>
       </c>
       <c r="AT27" t="n">
-        <v>53081</v>
+        <v>49221</v>
       </c>
       <c r="AU27" t="n">
-        <v>49256</v>
+        <v>49235</v>
       </c>
       <c r="AV27" t="n">
-        <v>49225</v>
+        <v>47874</v>
       </c>
       <c r="AW27" t="n">
-        <v>49221</v>
+        <v>47887</v>
       </c>
       <c r="AX27" t="n">
-        <v>49235</v>
+        <v>48209</v>
       </c>
       <c r="AY27" t="n">
-        <v>47874</v>
+        <v>47882</v>
       </c>
       <c r="AZ27" t="n">
-        <v>47887</v>
+        <v>47634</v>
       </c>
       <c r="BA27" t="n">
-        <v>48209</v>
+        <v>47510</v>
       </c>
       <c r="BB27" t="n">
-        <v>47882</v>
+        <v>47494</v>
       </c>
       <c r="BC27" t="n">
-        <v>47634</v>
+        <v>47478</v>
       </c>
       <c r="BD27" t="n">
-        <v>47510</v>
+        <v>159672.992</v>
       </c>
       <c r="BE27" t="n">
-        <v>47494</v>
+        <v>160144</v>
       </c>
       <c r="BF27" t="n">
-        <v>47478</v>
+        <v>160595.008</v>
       </c>
       <c r="BG27" t="n">
-        <v>159672.992</v>
+        <v>161014</v>
       </c>
       <c r="BH27" t="n">
-        <v>160144</v>
+        <v>167872.992</v>
       </c>
       <c r="BI27" t="n">
-        <v>160595.008</v>
+        <v>170336</v>
       </c>
     </row>
     <row r="28">
@@ -5687,106 +5687,106 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO28" t="n">
         <v>14</v>
       </c>
-      <c r="AF28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>31</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>30</v>
-      </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>14</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BD28" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BE28" t="n">
         <v>22</v>
       </c>
       <c r="BF28" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BG28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BI28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C29" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D29" t="n">
+        <v>284</v>
+      </c>
+      <c r="E29" t="n">
+        <v>279</v>
+      </c>
+      <c r="F29" t="n">
+        <v>278</v>
+      </c>
+      <c r="G29" t="n">
         <v>276</v>
       </c>
-      <c r="E29" t="n">
-        <v>276</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>277</v>
       </c>
-      <c r="G29" t="n">
-        <v>284</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
+        <v>280</v>
+      </c>
+      <c r="J29" t="n">
+        <v>292</v>
+      </c>
+      <c r="K29" t="n">
         <v>279</v>
       </c>
-      <c r="I29" t="n">
-        <v>278</v>
-      </c>
-      <c r="J29" t="n">
-        <v>276</v>
-      </c>
-      <c r="K29" t="n">
-        <v>277</v>
-      </c>
       <c r="L29" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="M29" t="n">
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="N29" t="n">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P29" t="n">
         <v>9</v>
       </c>
       <c r="Q29" t="n">
+        <v>40</v>
+      </c>
+      <c r="R29" t="n">
         <v>18</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>10</v>
       </c>
-      <c r="S29" t="n">
-        <v>9</v>
-      </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U29" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="V29" t="n">
+        <v>15</v>
+      </c>
+      <c r="W29" t="n">
         <v>10</v>
       </c>
-      <c r="W29" t="n">
-        <v>24</v>
-      </c>
       <c r="X29" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
+        <v>49</v>
+      </c>
+      <c r="AD29" t="n">
         <v>12</v>
       </c>
-      <c r="AD29" t="n">
-        <v>11</v>
-      </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="n">
         <v>125</v>
       </c>
       <c r="AJ29" t="n">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="AK29" t="n">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="AL29" t="n">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="AM29" t="n">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="AN29" t="n">
-        <v>180</v>
+        <v>431</v>
       </c>
       <c r="AO29" t="n">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AP29" t="n">
-        <v>474</v>
+        <v>371</v>
       </c>
       <c r="AQ29" t="n">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="AR29" t="n">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="AS29" t="n">
-        <v>371</v>
+        <v>214</v>
       </c>
       <c r="AT29" t="n">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="AU29" t="n">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="AV29" t="n">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AW29" t="n">
         <v>192</v>
       </c>
       <c r="AX29" t="n">
-        <v>192</v>
+        <v>515</v>
       </c>
       <c r="AY29" t="n">
-        <v>190</v>
+        <v>544</v>
       </c>
       <c r="AZ29" t="n">
-        <v>192</v>
+        <v>448</v>
       </c>
       <c r="BA29" t="n">
-        <v>515</v>
+        <v>427</v>
       </c>
       <c r="BB29" t="n">
-        <v>544</v>
+        <v>407</v>
       </c>
       <c r="BC29" t="n">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="BD29" t="n">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="BE29" t="n">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="BF29" t="n">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="BG29" t="n">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="BH29" t="n">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="BI29" t="n">
-        <v>315</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -5986,181 +5986,181 @@
         <v>594</v>
       </c>
       <c r="C30" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D30" t="n">
         <v>595</v>
       </c>
       <c r="E30" t="n">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="F30" t="n">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G30" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H30" t="n">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="I30" t="n">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="J30" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K30" t="n">
-        <v>601</v>
+        <v>440</v>
       </c>
       <c r="L30" t="n">
-        <v>604</v>
+        <v>439</v>
       </c>
       <c r="M30" t="n">
-        <v>605</v>
+        <v>436</v>
       </c>
       <c r="N30" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O30" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P30" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q30" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="R30" t="n">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="S30" t="n">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="T30" t="n">
-        <v>445</v>
+        <v>316</v>
       </c>
       <c r="U30" t="n">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="V30" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="W30" t="n">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="X30" t="n">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="Y30" t="n">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AA30" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AB30" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC30" t="n">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AD30" t="n">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="AE30" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="n">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="n">
-        <v>218</v>
+        <v>982</v>
       </c>
       <c r="AH30" t="n">
-        <v>245</v>
+        <v>992</v>
       </c>
       <c r="AI30" t="n">
-        <v>268</v>
+        <v>1009</v>
       </c>
       <c r="AJ30" t="n">
-        <v>982</v>
+        <v>1057</v>
       </c>
       <c r="AK30" t="n">
-        <v>992</v>
+        <v>1046</v>
       </c>
       <c r="AL30" t="n">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="AM30" t="n">
-        <v>1057</v>
+        <v>1097</v>
       </c>
       <c r="AN30" t="n">
-        <v>1046</v>
+        <v>1135</v>
       </c>
       <c r="AO30" t="n">
-        <v>1070</v>
+        <v>1151</v>
       </c>
       <c r="AP30" t="n">
-        <v>1097</v>
+        <v>1172</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1135</v>
+        <v>1200</v>
       </c>
       <c r="AR30" t="n">
-        <v>1151</v>
+        <v>1240</v>
       </c>
       <c r="AS30" t="n">
-        <v>1172</v>
+        <v>1269</v>
       </c>
       <c r="AT30" t="n">
-        <v>1200</v>
+        <v>1289</v>
       </c>
       <c r="AU30" t="n">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="AV30" t="n">
-        <v>1269</v>
+        <v>1356</v>
       </c>
       <c r="AW30" t="n">
-        <v>1289</v>
+        <v>1367</v>
       </c>
       <c r="AX30" t="n">
-        <v>1300</v>
+        <v>1362</v>
       </c>
       <c r="AY30" t="n">
+        <v>1359</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>1356</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>1367</v>
-      </c>
       <c r="BA30" t="n">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="BB30" t="n">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="BC30" t="n">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="BD30" t="n">
-        <v>1353</v>
+        <v>114291</v>
       </c>
       <c r="BE30" t="n">
-        <v>1351</v>
+        <v>114785</v>
       </c>
       <c r="BF30" t="n">
-        <v>1350</v>
+        <v>115236</v>
       </c>
       <c r="BG30" t="n">
-        <v>114291</v>
+        <v>115936</v>
       </c>
       <c r="BH30" t="n">
-        <v>114785</v>
+        <v>122812</v>
       </c>
       <c r="BI30" t="n">
-        <v>115236</v>
+        <v>125529</v>
       </c>
     </row>
     <row r="31">
@@ -6170,31 +6170,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22280</v>
+        <v>24367</v>
       </c>
       <c r="C31" t="n">
-        <v>22955</v>
+        <v>25106</v>
       </c>
       <c r="D31" t="n">
-        <v>23651</v>
+        <v>25866</v>
       </c>
       <c r="E31" t="n">
-        <v>24367</v>
+        <v>26650</v>
       </c>
       <c r="F31" t="n">
-        <v>25106</v>
+        <v>27458</v>
       </c>
       <c r="G31" t="n">
-        <v>25866</v>
+        <v>28289</v>
       </c>
       <c r="H31" t="n">
-        <v>26650</v>
+        <v>29147</v>
       </c>
       <c r="I31" t="n">
-        <v>27458</v>
+        <v>29147</v>
       </c>
       <c r="J31" t="n">
-        <v>28289</v>
+        <v>29147</v>
       </c>
       <c r="K31" t="n">
         <v>29147</v>
@@ -6731,151 +6731,151 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16295</v>
+        <v>14404</v>
       </c>
       <c r="C34" t="n">
-        <v>16328</v>
+        <v>14207</v>
       </c>
       <c r="D34" t="n">
-        <v>15515</v>
+        <v>13262</v>
       </c>
       <c r="E34" t="n">
-        <v>14404</v>
+        <v>12915</v>
       </c>
       <c r="F34" t="n">
-        <v>14207</v>
+        <v>12799</v>
       </c>
       <c r="G34" t="n">
-        <v>13262</v>
+        <v>11928</v>
       </c>
       <c r="H34" t="n">
-        <v>12915</v>
+        <v>11170</v>
       </c>
       <c r="I34" t="n">
-        <v>12799</v>
+        <v>11302</v>
       </c>
       <c r="J34" t="n">
-        <v>11928</v>
+        <v>11323</v>
       </c>
       <c r="K34" t="n">
-        <v>11170</v>
+        <v>11132</v>
       </c>
       <c r="L34" t="n">
-        <v>11302</v>
+        <v>12825</v>
       </c>
       <c r="M34" t="n">
-        <v>11323</v>
+        <v>12819</v>
       </c>
       <c r="N34" t="n">
-        <v>11132</v>
+        <v>12633</v>
       </c>
       <c r="O34" t="n">
-        <v>12825</v>
+        <v>12701</v>
       </c>
       <c r="P34" t="n">
-        <v>12819</v>
+        <v>19144</v>
       </c>
       <c r="Q34" t="n">
-        <v>12633</v>
+        <v>19152</v>
       </c>
       <c r="R34" t="n">
-        <v>12701</v>
+        <v>19253</v>
       </c>
       <c r="S34" t="n">
-        <v>19144</v>
+        <v>19157</v>
       </c>
       <c r="T34" t="n">
-        <v>19152</v>
+        <v>24190</v>
       </c>
       <c r="U34" t="n">
-        <v>19253</v>
+        <v>24291</v>
       </c>
       <c r="V34" t="n">
-        <v>19157</v>
+        <v>24394</v>
       </c>
       <c r="W34" t="n">
-        <v>24190</v>
+        <v>23730</v>
       </c>
       <c r="X34" t="n">
-        <v>24291</v>
+        <v>20776</v>
       </c>
       <c r="Y34" t="n">
-        <v>24394</v>
+        <v>21325</v>
       </c>
       <c r="Z34" t="n">
-        <v>23730</v>
+        <v>20924</v>
       </c>
       <c r="AA34" t="n">
-        <v>20776</v>
+        <v>21524</v>
       </c>
       <c r="AB34" t="n">
-        <v>21325</v>
+        <v>21764</v>
       </c>
       <c r="AC34" t="n">
-        <v>20924</v>
+        <v>21764</v>
       </c>
       <c r="AD34" t="n">
-        <v>21524</v>
+        <v>21771</v>
       </c>
       <c r="AE34" t="n">
-        <v>21764</v>
+        <v>21605</v>
       </c>
       <c r="AF34" t="n">
-        <v>21764</v>
+        <v>21616</v>
       </c>
       <c r="AG34" t="n">
-        <v>21771</v>
+        <v>21626</v>
       </c>
       <c r="AH34" t="n">
-        <v>21605</v>
+        <v>21757</v>
       </c>
       <c r="AI34" t="n">
-        <v>21616</v>
+        <v>21746</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21626</v>
+        <v>21664</v>
       </c>
       <c r="AK34" t="n">
-        <v>21757</v>
+        <v>21698</v>
       </c>
       <c r="AL34" t="n">
-        <v>21746</v>
+        <v>22207</v>
       </c>
       <c r="AM34" t="n">
-        <v>21664</v>
+        <v>22236</v>
       </c>
       <c r="AN34" t="n">
-        <v>21698</v>
+        <v>22288</v>
       </c>
       <c r="AO34" t="n">
-        <v>22207</v>
+        <v>22288</v>
       </c>
       <c r="AP34" t="n">
-        <v>22236</v>
+        <v>22308</v>
       </c>
       <c r="AQ34" t="n">
-        <v>22288</v>
+        <v>22423</v>
       </c>
       <c r="AR34" t="n">
-        <v>22288</v>
+        <v>18581</v>
       </c>
       <c r="AS34" t="n">
-        <v>22308</v>
+        <v>18581</v>
       </c>
       <c r="AT34" t="n">
-        <v>22423</v>
+        <v>18581</v>
       </c>
       <c r="AU34" t="n">
         <v>18581</v>
       </c>
       <c r="AV34" t="n">
-        <v>18581</v>
+        <v>739</v>
       </c>
       <c r="AW34" t="n">
-        <v>18581</v>
+        <v>739</v>
       </c>
       <c r="AX34" t="n">
-        <v>18581</v>
+        <v>739</v>
       </c>
       <c r="AY34" t="n">
         <v>739</v>
@@ -6890,25 +6890,25 @@
         <v>739</v>
       </c>
       <c r="BC34" t="n">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="BD34" t="n">
-        <v>739</v>
+        <v>989</v>
       </c>
       <c r="BE34" t="n">
-        <v>739</v>
+        <v>994</v>
       </c>
       <c r="BF34" t="n">
-        <v>749</v>
+        <v>1000</v>
       </c>
       <c r="BG34" t="n">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="BH34" t="n">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="BI34" t="n">
-        <v>1000</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35">
@@ -7056,46 +7056,46 @@
         <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>0</v>
+        <v>16428</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>16428</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>16428</v>
       </c>
       <c r="AY35" t="n">
-        <v>16428</v>
+        <v>16077</v>
       </c>
       <c r="AZ35" t="n">
-        <v>16428</v>
+        <v>15928</v>
       </c>
       <c r="BA35" t="n">
-        <v>16428</v>
+        <v>15828</v>
       </c>
       <c r="BB35" t="n">
-        <v>16077</v>
+        <v>15828</v>
       </c>
       <c r="BC35" t="n">
-        <v>15928</v>
+        <v>15828</v>
       </c>
       <c r="BD35" t="n">
-        <v>15828</v>
+        <v>14866</v>
       </c>
       <c r="BE35" t="n">
-        <v>15828</v>
+        <v>14866</v>
       </c>
       <c r="BF35" t="n">
-        <v>15828</v>
+        <v>14870</v>
       </c>
       <c r="BG35" t="n">
-        <v>14866</v>
+        <v>14610</v>
       </c>
       <c r="BH35" t="n">
-        <v>14866</v>
+        <v>14610</v>
       </c>
       <c r="BI35" t="n">
-        <v>14870</v>
+        <v>14610</v>
       </c>
     </row>
     <row r="36">
@@ -7292,184 +7292,184 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29773</v>
+        <v>28825</v>
       </c>
       <c r="C37" t="n">
-        <v>29807</v>
+        <v>29648</v>
       </c>
       <c r="D37" t="n">
-        <v>29801</v>
+        <v>22286</v>
       </c>
       <c r="E37" t="n">
-        <v>28825</v>
+        <v>22511</v>
       </c>
       <c r="F37" t="n">
-        <v>29648</v>
+        <v>22778</v>
       </c>
       <c r="G37" t="n">
-        <v>22286</v>
+        <v>22913</v>
       </c>
       <c r="H37" t="n">
-        <v>22511</v>
+        <v>23221</v>
       </c>
       <c r="I37" t="n">
-        <v>22778</v>
+        <v>27358</v>
       </c>
       <c r="J37" t="n">
-        <v>22913</v>
+        <v>27494</v>
       </c>
       <c r="K37" t="n">
-        <v>23221</v>
+        <v>42450</v>
       </c>
       <c r="L37" t="n">
-        <v>27358</v>
+        <v>42465</v>
       </c>
       <c r="M37" t="n">
-        <v>27494</v>
+        <v>42573</v>
       </c>
       <c r="N37" t="n">
-        <v>42450</v>
+        <v>43733</v>
       </c>
       <c r="O37" t="n">
-        <v>42465</v>
+        <v>43868</v>
       </c>
       <c r="P37" t="n">
-        <v>42573</v>
+        <v>43758</v>
       </c>
       <c r="Q37" t="n">
-        <v>43733</v>
+        <v>43907</v>
       </c>
       <c r="R37" t="n">
-        <v>43868</v>
+        <v>44003</v>
       </c>
       <c r="S37" t="n">
-        <v>43758</v>
+        <v>47576</v>
       </c>
       <c r="T37" t="n">
-        <v>43907</v>
+        <v>46532</v>
       </c>
       <c r="U37" t="n">
-        <v>44003</v>
+        <v>46532</v>
       </c>
       <c r="V37" t="n">
-        <v>47576</v>
+        <v>50475</v>
       </c>
       <c r="W37" t="n">
-        <v>46532</v>
+        <v>56288</v>
       </c>
       <c r="X37" t="n">
-        <v>46532</v>
+        <v>57144</v>
       </c>
       <c r="Y37" t="n">
-        <v>50475</v>
+        <v>56364</v>
       </c>
       <c r="Z37" t="n">
-        <v>56288</v>
+        <v>56902</v>
       </c>
       <c r="AA37" t="n">
-        <v>57144</v>
+        <v>56660</v>
       </c>
       <c r="AB37" t="n">
-        <v>56364</v>
+        <v>84274</v>
       </c>
       <c r="AC37" t="n">
-        <v>56902</v>
+        <v>85454</v>
       </c>
       <c r="AD37" t="n">
-        <v>56660</v>
+        <v>85109</v>
       </c>
       <c r="AE37" t="n">
-        <v>84274</v>
+        <v>86879</v>
       </c>
       <c r="AF37" t="n">
-        <v>85454</v>
+        <v>94459</v>
       </c>
       <c r="AG37" t="n">
-        <v>85109</v>
+        <v>93707</v>
       </c>
       <c r="AH37" t="n">
-        <v>86879</v>
+        <v>94343</v>
       </c>
       <c r="AI37" t="n">
-        <v>94459</v>
+        <v>95994</v>
       </c>
       <c r="AJ37" t="n">
-        <v>93707</v>
+        <v>97567</v>
       </c>
       <c r="AK37" t="n">
-        <v>94343</v>
+        <v>97953</v>
       </c>
       <c r="AL37" t="n">
-        <v>95994</v>
+        <v>98389</v>
       </c>
       <c r="AM37" t="n">
-        <v>97567</v>
+        <v>98832</v>
       </c>
       <c r="AN37" t="n">
-        <v>97953</v>
+        <v>102212</v>
       </c>
       <c r="AO37" t="n">
-        <v>98389</v>
+        <v>102687</v>
       </c>
       <c r="AP37" t="n">
-        <v>98832</v>
+        <v>103051</v>
       </c>
       <c r="AQ37" t="n">
-        <v>102212</v>
+        <v>103607</v>
       </c>
       <c r="AR37" t="n">
-        <v>102687</v>
+        <v>106809</v>
       </c>
       <c r="AS37" t="n">
-        <v>103051</v>
+        <v>107140</v>
       </c>
       <c r="AT37" t="n">
-        <v>103607</v>
+        <v>107442</v>
       </c>
       <c r="AU37" t="n">
-        <v>106809</v>
+        <v>107718</v>
       </c>
       <c r="AV37" t="n">
-        <v>107140</v>
+        <v>109324</v>
       </c>
       <c r="AW37" t="n">
-        <v>107442</v>
+        <v>109641</v>
       </c>
       <c r="AX37" t="n">
-        <v>107718</v>
+        <v>109980</v>
       </c>
       <c r="AY37" t="n">
-        <v>109324</v>
+        <v>110560</v>
       </c>
       <c r="AZ37" t="n">
-        <v>109641</v>
+        <v>117679</v>
       </c>
       <c r="BA37" t="n">
-        <v>109980</v>
+        <v>118172</v>
       </c>
       <c r="BB37" t="n">
-        <v>110560</v>
+        <v>118528</v>
       </c>
       <c r="BC37" t="n">
-        <v>117679</v>
+        <v>118841</v>
       </c>
       <c r="BD37" t="n">
-        <v>118172</v>
+        <v>14007</v>
       </c>
       <c r="BE37" t="n">
-        <v>118528</v>
+        <v>14009</v>
       </c>
       <c r="BF37" t="n">
-        <v>118841</v>
+        <v>14010</v>
       </c>
       <c r="BG37" t="n">
-        <v>14007</v>
+        <v>14011</v>
       </c>
       <c r="BH37" t="n">
-        <v>14009</v>
+        <v>14002</v>
       </c>
       <c r="BI37" t="n">
-        <v>14010</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="38">
@@ -7569,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>8133</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>8133</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>8133</v>
       </c>
       <c r="AI38" t="n">
         <v>8133</v>
@@ -7626,19 +7626,19 @@
         <v>8133</v>
       </c>
       <c r="AY38" t="n">
-        <v>8133</v>
+        <v>8484</v>
       </c>
       <c r="AZ38" t="n">
-        <v>8133</v>
+        <v>8701</v>
       </c>
       <c r="BA38" t="n">
-        <v>8133</v>
+        <v>8801</v>
       </c>
       <c r="BB38" t="n">
-        <v>8484</v>
+        <v>8801</v>
       </c>
       <c r="BC38" t="n">
-        <v>8701</v>
+        <v>8801</v>
       </c>
       <c r="BD38" t="n">
         <v>8801</v>
@@ -7853,184 +7853,184 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21089</v>
+        <v>20142</v>
       </c>
       <c r="C40" t="n">
-        <v>21124</v>
+        <v>20965</v>
       </c>
       <c r="D40" t="n">
-        <v>21117</v>
+        <v>21246</v>
       </c>
       <c r="E40" t="n">
-        <v>20142</v>
+        <v>21471</v>
       </c>
       <c r="F40" t="n">
-        <v>20965</v>
+        <v>21739</v>
       </c>
       <c r="G40" t="n">
-        <v>21246</v>
+        <v>21874</v>
       </c>
       <c r="H40" t="n">
-        <v>21471</v>
+        <v>22182</v>
       </c>
       <c r="I40" t="n">
-        <v>21739</v>
+        <v>22205</v>
       </c>
       <c r="J40" t="n">
-        <v>21874</v>
+        <v>22341</v>
       </c>
       <c r="K40" t="n">
-        <v>22182</v>
+        <v>37297</v>
       </c>
       <c r="L40" t="n">
-        <v>22205</v>
+        <v>37312</v>
       </c>
       <c r="M40" t="n">
-        <v>22341</v>
+        <v>37420</v>
       </c>
       <c r="N40" t="n">
-        <v>37297</v>
+        <v>38580</v>
       </c>
       <c r="O40" t="n">
-        <v>37312</v>
+        <v>38715</v>
       </c>
       <c r="P40" t="n">
-        <v>37420</v>
+        <v>38605</v>
       </c>
       <c r="Q40" t="n">
-        <v>38580</v>
+        <v>38754</v>
       </c>
       <c r="R40" t="n">
-        <v>38715</v>
+        <v>38850</v>
       </c>
       <c r="S40" t="n">
-        <v>38605</v>
+        <v>42423</v>
       </c>
       <c r="T40" t="n">
-        <v>38754</v>
+        <v>41379</v>
       </c>
       <c r="U40" t="n">
-        <v>38850</v>
+        <v>41379</v>
       </c>
       <c r="V40" t="n">
-        <v>42423</v>
+        <v>45322</v>
       </c>
       <c r="W40" t="n">
-        <v>41379</v>
+        <v>51135</v>
       </c>
       <c r="X40" t="n">
-        <v>41379</v>
+        <v>51991</v>
       </c>
       <c r="Y40" t="n">
-        <v>45322</v>
+        <v>51211</v>
       </c>
       <c r="Z40" t="n">
-        <v>51135</v>
+        <v>51749</v>
       </c>
       <c r="AA40" t="n">
-        <v>51991</v>
+        <v>51507</v>
       </c>
       <c r="AB40" t="n">
-        <v>51211</v>
+        <v>79121</v>
       </c>
       <c r="AC40" t="n">
-        <v>51749</v>
+        <v>80301</v>
       </c>
       <c r="AD40" t="n">
-        <v>51507</v>
+        <v>79956</v>
       </c>
       <c r="AE40" t="n">
-        <v>79121</v>
+        <v>81726</v>
       </c>
       <c r="AF40" t="n">
-        <v>80301</v>
+        <v>81173</v>
       </c>
       <c r="AG40" t="n">
-        <v>79956</v>
+        <v>80421</v>
       </c>
       <c r="AH40" t="n">
-        <v>81726</v>
+        <v>81057</v>
       </c>
       <c r="AI40" t="n">
-        <v>81173</v>
+        <v>82708</v>
       </c>
       <c r="AJ40" t="n">
-        <v>80421</v>
+        <v>84281</v>
       </c>
       <c r="AK40" t="n">
-        <v>81057</v>
+        <v>84667</v>
       </c>
       <c r="AL40" t="n">
-        <v>82708</v>
+        <v>85103</v>
       </c>
       <c r="AM40" t="n">
-        <v>84281</v>
+        <v>85546</v>
       </c>
       <c r="AN40" t="n">
-        <v>84667</v>
+        <v>88926</v>
       </c>
       <c r="AO40" t="n">
-        <v>85103</v>
+        <v>89401</v>
       </c>
       <c r="AP40" t="n">
-        <v>85546</v>
+        <v>89765</v>
       </c>
       <c r="AQ40" t="n">
-        <v>88926</v>
+        <v>90321</v>
       </c>
       <c r="AR40" t="n">
-        <v>89401</v>
+        <v>93523</v>
       </c>
       <c r="AS40" t="n">
-        <v>89765</v>
+        <v>93854</v>
       </c>
       <c r="AT40" t="n">
-        <v>90321</v>
+        <v>94156</v>
       </c>
       <c r="AU40" t="n">
-        <v>93523</v>
+        <v>94432</v>
       </c>
       <c r="AV40" t="n">
-        <v>93854</v>
+        <v>96038</v>
       </c>
       <c r="AW40" t="n">
-        <v>94156</v>
+        <v>96355</v>
       </c>
       <c r="AX40" t="n">
-        <v>94432</v>
+        <v>96694</v>
       </c>
       <c r="AY40" t="n">
-        <v>96038</v>
+        <v>96923</v>
       </c>
       <c r="AZ40" t="n">
-        <v>96355</v>
+        <v>103825</v>
       </c>
       <c r="BA40" t="n">
-        <v>96694</v>
+        <v>104218</v>
       </c>
       <c r="BB40" t="n">
-        <v>96923</v>
+        <v>104574</v>
       </c>
       <c r="BC40" t="n">
-        <v>103825</v>
+        <v>104887</v>
       </c>
       <c r="BD40" t="n">
-        <v>104218</v>
+        <v>53</v>
       </c>
       <c r="BE40" t="n">
-        <v>104574</v>
+        <v>55</v>
       </c>
       <c r="BF40" t="n">
-        <v>104887</v>
+        <v>56</v>
       </c>
       <c r="BG40" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BH40" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BI40" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -8414,34 +8414,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8684</v>
+        <v>8683</v>
       </c>
       <c r="C43" t="n">
         <v>8683</v>
       </c>
       <c r="D43" t="n">
-        <v>8684</v>
+        <v>1040</v>
       </c>
       <c r="E43" t="n">
-        <v>8683</v>
+        <v>1040</v>
       </c>
       <c r="F43" t="n">
-        <v>8683</v>
+        <v>1039</v>
       </c>
       <c r="G43" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H43" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I43" t="n">
-        <v>1039</v>
+        <v>5153</v>
       </c>
       <c r="J43" t="n">
-        <v>1039</v>
+        <v>5153</v>
       </c>
       <c r="K43" t="n">
-        <v>1039</v>
+        <v>5153</v>
       </c>
       <c r="L43" t="n">
         <v>5153</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-32688</v>
+        <v>-32125</v>
       </c>
       <c r="C47" t="n">
-        <v>-33493</v>
+        <v>-33675</v>
       </c>
       <c r="D47" t="n">
-        <v>-33521</v>
+        <v>-34758</v>
       </c>
       <c r="E47" t="n">
-        <v>-32125</v>
+        <v>-35582</v>
       </c>
       <c r="F47" t="n">
-        <v>-33675</v>
+        <v>-36561</v>
       </c>
       <c r="G47" t="n">
-        <v>-34758</v>
+        <v>-36572</v>
       </c>
       <c r="H47" t="n">
-        <v>-35582</v>
+        <v>-39916</v>
       </c>
       <c r="I47" t="n">
-        <v>-36561</v>
+        <v>-43706</v>
       </c>
       <c r="J47" t="n">
-        <v>-36572</v>
+        <v>-43938</v>
       </c>
       <c r="K47" t="n">
-        <v>-39916</v>
+        <v>-58550</v>
       </c>
       <c r="L47" t="n">
-        <v>-43706</v>
+        <v>-59759</v>
       </c>
       <c r="M47" t="n">
-        <v>-43938</v>
+        <v>-59785</v>
       </c>
       <c r="N47" t="n">
-        <v>-58550</v>
+        <v>-61043</v>
       </c>
       <c r="O47" t="n">
-        <v>-59759</v>
+        <v>-61373</v>
       </c>
       <c r="P47" t="n">
-        <v>-59785</v>
+        <v>-67345</v>
       </c>
       <c r="Q47" t="n">
-        <v>-61043</v>
+        <v>-67643</v>
       </c>
       <c r="R47" t="n">
-        <v>-61373</v>
+        <v>-68096</v>
       </c>
       <c r="S47" t="n">
-        <v>-67345</v>
+        <v>-71670</v>
       </c>
       <c r="T47" t="n">
-        <v>-67643</v>
+        <v>-75790</v>
       </c>
       <c r="U47" t="n">
-        <v>-68096</v>
+        <v>-75806</v>
       </c>
       <c r="V47" t="n">
-        <v>-71670</v>
+        <v>-80004</v>
       </c>
       <c r="W47" t="n">
-        <v>-75790</v>
+        <v>-85990</v>
       </c>
       <c r="X47" t="n">
-        <v>-75806</v>
+        <v>-90247</v>
       </c>
       <c r="Y47" t="n">
-        <v>-80004</v>
+        <v>-90486</v>
       </c>
       <c r="Z47" t="n">
-        <v>-85990</v>
+        <v>-90907</v>
       </c>
       <c r="AA47" t="n">
-        <v>-90247</v>
+        <v>-91515</v>
       </c>
       <c r="AB47" t="n">
-        <v>-90486</v>
+        <v>-119011</v>
       </c>
       <c r="AC47" t="n">
-        <v>-90907</v>
+        <v>-120437</v>
       </c>
       <c r="AD47" t="n">
-        <v>-91515</v>
+        <v>-121349</v>
       </c>
       <c r="AE47" t="n">
-        <v>-119011</v>
+        <v>-123031</v>
       </c>
       <c r="AF47" t="n">
-        <v>-120437</v>
+        <v>-130046</v>
       </c>
       <c r="AG47" t="n">
-        <v>-121349</v>
+        <v>-130066</v>
       </c>
       <c r="AH47" t="n">
-        <v>-123031</v>
+        <v>-130787</v>
       </c>
       <c r="AI47" t="n">
-        <v>-130046</v>
+        <v>-132571</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-130066</v>
+        <v>-133878</v>
       </c>
       <c r="AK47" t="n">
-        <v>-130787</v>
+        <v>-134091</v>
       </c>
       <c r="AL47" t="n">
-        <v>-132571</v>
+        <v>-135194</v>
       </c>
       <c r="AM47" t="n">
-        <v>-133878</v>
+        <v>-135764.992</v>
       </c>
       <c r="AN47" t="n">
-        <v>-134091</v>
+        <v>-138966</v>
       </c>
       <c r="AO47" t="n">
-        <v>-135194</v>
+        <v>-139339.008</v>
       </c>
       <c r="AP47" t="n">
-        <v>-135764.992</v>
+        <v>-139788.992</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-138966</v>
+        <v>-140228</v>
       </c>
       <c r="AR47" t="n">
-        <v>-139339.008</v>
+        <v>-139296</v>
       </c>
       <c r="AS47" t="n">
-        <v>-139788.992</v>
+        <v>-139342</v>
       </c>
       <c r="AT47" t="n">
-        <v>-140228</v>
+        <v>-139667.008</v>
       </c>
       <c r="AU47" t="n">
-        <v>-139296</v>
+        <v>-139892.992</v>
       </c>
       <c r="AV47" t="n">
-        <v>-139342</v>
+        <v>-139972.992</v>
       </c>
       <c r="AW47" t="n">
-        <v>-139667.008</v>
+        <v>-140224.992</v>
       </c>
       <c r="AX47" t="n">
-        <v>-139892.992</v>
+        <v>-140838</v>
       </c>
       <c r="AY47" t="n">
-        <v>-139972.992</v>
+        <v>-140887.008</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-140224.992</v>
+        <v>-147652</v>
       </c>
       <c r="BA47" t="n">
-        <v>-140838</v>
+        <v>-148104.992</v>
       </c>
       <c r="BB47" t="n">
-        <v>-140887.008</v>
+        <v>-148604</v>
       </c>
       <c r="BC47" t="n">
-        <v>-147652</v>
+        <v>-148922</v>
       </c>
       <c r="BD47" t="n">
-        <v>-148104.992</v>
+        <v>-155519.008</v>
       </c>
       <c r="BE47" t="n">
-        <v>-148604</v>
+        <v>-155899.008</v>
       </c>
       <c r="BF47" t="n">
-        <v>-148922</v>
+        <v>-156236.992</v>
       </c>
       <c r="BG47" t="n">
-        <v>-155519.008</v>
+        <v>-156430</v>
       </c>
       <c r="BH47" t="n">
-        <v>-155899.008</v>
+        <v>-162544</v>
       </c>
       <c r="BI47" t="n">
-        <v>-156236.992</v>
+        <v>-165175.008</v>
       </c>
     </row>
     <row r="48">
@@ -10097,184 +10097,184 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-140604.992</v>
+        <v>-140042</v>
       </c>
       <c r="C52" t="n">
-        <v>-141410</v>
+        <v>-141592</v>
       </c>
       <c r="D52" t="n">
-        <v>-141438</v>
+        <v>-142675.008</v>
       </c>
       <c r="E52" t="n">
-        <v>-140042</v>
+        <v>-143499.008</v>
       </c>
       <c r="F52" t="n">
-        <v>-141592</v>
+        <v>-144478</v>
       </c>
       <c r="G52" t="n">
-        <v>-142675.008</v>
+        <v>-144488.992</v>
       </c>
       <c r="H52" t="n">
-        <v>-143499.008</v>
+        <v>-147832.992</v>
       </c>
       <c r="I52" t="n">
-        <v>-144478</v>
+        <v>-151623.008</v>
       </c>
       <c r="J52" t="n">
-        <v>-144488.992</v>
+        <v>-151855.008</v>
       </c>
       <c r="K52" t="n">
-        <v>-147832.992</v>
+        <v>-166467.008</v>
       </c>
       <c r="L52" t="n">
-        <v>-151623.008</v>
+        <v>-167676</v>
       </c>
       <c r="M52" t="n">
-        <v>-151855.008</v>
+        <v>-167702</v>
       </c>
       <c r="N52" t="n">
-        <v>-166467.008</v>
+        <v>-168960</v>
       </c>
       <c r="O52" t="n">
-        <v>-167676</v>
+        <v>-169290</v>
       </c>
       <c r="P52" t="n">
-        <v>-167702</v>
+        <v>-175262</v>
       </c>
       <c r="Q52" t="n">
-        <v>-168960</v>
+        <v>-175560</v>
       </c>
       <c r="R52" t="n">
-        <v>-169290</v>
+        <v>-176012.992</v>
       </c>
       <c r="S52" t="n">
-        <v>-175262</v>
+        <v>-179587.008</v>
       </c>
       <c r="T52" t="n">
-        <v>-175560</v>
+        <v>-183707.008</v>
       </c>
       <c r="U52" t="n">
-        <v>-176012.992</v>
+        <v>-183723.008</v>
       </c>
       <c r="V52" t="n">
-        <v>-179587.008</v>
+        <v>-187920.992</v>
       </c>
       <c r="W52" t="n">
-        <v>-183707.008</v>
+        <v>-193907.008</v>
       </c>
       <c r="X52" t="n">
-        <v>-183723.008</v>
+        <v>-198164</v>
       </c>
       <c r="Y52" t="n">
-        <v>-187920.992</v>
+        <v>-198403.008</v>
       </c>
       <c r="Z52" t="n">
-        <v>-193907.008</v>
+        <v>-198824</v>
       </c>
       <c r="AA52" t="n">
-        <v>-198164</v>
+        <v>-199432</v>
       </c>
       <c r="AB52" t="n">
-        <v>-198403.008</v>
+        <v>-226928</v>
       </c>
       <c r="AC52" t="n">
-        <v>-198824</v>
+        <v>-228354</v>
       </c>
       <c r="AD52" t="n">
-        <v>-199432</v>
+        <v>-229266</v>
       </c>
       <c r="AE52" t="n">
-        <v>-226928</v>
+        <v>-230948</v>
       </c>
       <c r="AF52" t="n">
-        <v>-228354</v>
+        <v>-237963.008</v>
       </c>
       <c r="AG52" t="n">
-        <v>-229266</v>
+        <v>-237983.008</v>
       </c>
       <c r="AH52" t="n">
-        <v>-230948</v>
+        <v>-238704</v>
       </c>
       <c r="AI52" t="n">
-        <v>-237963.008</v>
+        <v>-240488</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-237983.008</v>
+        <v>-241795.008</v>
       </c>
       <c r="AK52" t="n">
-        <v>-238704</v>
+        <v>-242008</v>
       </c>
       <c r="AL52" t="n">
-        <v>-240488</v>
+        <v>-243111.008</v>
       </c>
       <c r="AM52" t="n">
-        <v>-241795.008</v>
+        <v>-243682</v>
       </c>
       <c r="AN52" t="n">
-        <v>-242008</v>
+        <v>-246883.008</v>
       </c>
       <c r="AO52" t="n">
-        <v>-243111.008</v>
+        <v>-247256</v>
       </c>
       <c r="AP52" t="n">
-        <v>-243682</v>
+        <v>-247706</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-246883.008</v>
+        <v>-248144.992</v>
       </c>
       <c r="AR52" t="n">
-        <v>-247256</v>
+        <v>-247212.992</v>
       </c>
       <c r="AS52" t="n">
-        <v>-247706</v>
+        <v>-247259.008</v>
       </c>
       <c r="AT52" t="n">
-        <v>-248144.992</v>
+        <v>-247584</v>
       </c>
       <c r="AU52" t="n">
-        <v>-247212.992</v>
+        <v>-247810</v>
       </c>
       <c r="AV52" t="n">
-        <v>-247259.008</v>
+        <v>-247890</v>
       </c>
       <c r="AW52" t="n">
-        <v>-247584</v>
+        <v>-248142</v>
       </c>
       <c r="AX52" t="n">
-        <v>-247810</v>
+        <v>-248755.008</v>
       </c>
       <c r="AY52" t="n">
-        <v>-247890</v>
+        <v>-248804</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-248142</v>
+        <v>-255568.992</v>
       </c>
       <c r="BA52" t="n">
-        <v>-248755.008</v>
+        <v>-256022</v>
       </c>
       <c r="BB52" t="n">
-        <v>-248804</v>
+        <v>-256520.992</v>
       </c>
       <c r="BC52" t="n">
-        <v>-255568.992</v>
+        <v>-256839.008</v>
       </c>
       <c r="BD52" t="n">
-        <v>-256022</v>
+        <v>-263436</v>
       </c>
       <c r="BE52" t="n">
-        <v>-256520.992</v>
+        <v>-263816</v>
       </c>
       <c r="BF52" t="n">
-        <v>-256839.008</v>
+        <v>-264154</v>
       </c>
       <c r="BG52" t="n">
-        <v>-263436</v>
+        <v>-264347.008</v>
       </c>
       <c r="BH52" t="n">
-        <v>-263816</v>
+        <v>-270460.992</v>
       </c>
       <c r="BI52" t="n">
-        <v>-264154</v>
+        <v>-273092</v>
       </c>
     </row>
     <row r="53">
@@ -11046,15 +11046,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11129,15 +11123,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11212,16 +11200,16 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -11289,91 +11277,91 @@
         <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AJ59" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AK59" t="n">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="AL59" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="AM59" t="n">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="AN59" t="n">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="AO59" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="AP59" t="n">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="AQ59" t="n">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="AR59" t="n">
-        <v>257</v>
+        <v>420</v>
       </c>
       <c r="AS59" t="n">
-        <v>288</v>
+        <v>447</v>
       </c>
       <c r="AT59" t="n">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="AU59" t="n">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="AV59" t="n">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AW59" t="n">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="AX59" t="n">
-        <v>391</v>
+        <v>510</v>
       </c>
       <c r="AY59" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AZ59" t="n">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="BA59" t="n">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="BB59" t="n">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="BC59" t="n">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="BD59" t="n">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="BE59" t="n">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="BF59" t="n">
-        <v>451</v>
+        <v>645</v>
       </c>
       <c r="BG59" t="n">
-        <v>519</v>
+        <v>699</v>
       </c>
       <c r="BH59" t="n">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="BI59" t="n">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60">
@@ -11397,16 +11385,16 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -11477,88 +11465,88 @@
         <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="AK60" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="AM60" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-39</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
         <v>-27</v>
       </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>-22</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>-24</v>
-      </c>
       <c r="AQ60" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="AS60" t="n">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="AT60" t="n">
+        <v>-30</v>
+      </c>
+      <c r="AU60" t="n">
         <v>-36</v>
       </c>
-      <c r="AU60" t="n">
-        <v>-63</v>
-      </c>
       <c r="AV60" t="n">
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="AW60" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AX60" t="n">
+        <v>-46</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>-88</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
         <v>-36</v>
       </c>
-      <c r="AY60" t="n">
-        <v>-84</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-46</v>
-      </c>
       <c r="BB60" t="n">
-        <v>-88</v>
+        <v>-38</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="BD60" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BE60" t="n">
-        <v>-38</v>
+        <v>-59</v>
       </c>
       <c r="BF60" t="n">
-        <v>-74</v>
+        <v>-60</v>
       </c>
       <c r="BG60" t="n">
-        <v>0</v>
+        <v>-107</v>
       </c>
       <c r="BH60" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="BI60" t="n">
-        <v>-60</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="61">
@@ -11582,16 +11570,16 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
@@ -11659,91 +11647,91 @@
         <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AJ61" t="n">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="AK61" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AL61" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="AM61" t="n">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="AN61" t="n">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="AO61" t="n">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="AP61" t="n">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AQ61" t="n">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="AR61" t="n">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="AS61" t="n">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="AT61" t="n">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="AU61" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AV61" t="n">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="AW61" t="n">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="AX61" t="n">
-        <v>355</v>
+        <v>464</v>
       </c>
       <c r="AY61" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AZ61" t="n">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="BA61" t="n">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="BB61" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BC61" t="n">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="BD61" t="n">
-        <v>354</v>
+        <v>519</v>
       </c>
       <c r="BE61" t="n">
-        <v>378</v>
+        <v>582</v>
       </c>
       <c r="BF61" t="n">
-        <v>377</v>
+        <v>585</v>
       </c>
       <c r="BG61" t="n">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="BH61" t="n">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="BI61" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62">
@@ -11767,16 +11755,16 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -11938,182 +11926,182 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-416</v>
+        <v>-1001</v>
       </c>
       <c r="C63" t="n">
-        <v>-388</v>
+        <v>183</v>
       </c>
       <c r="D63" t="n">
-        <v>273</v>
+        <v>-389</v>
       </c>
       <c r="E63" t="n">
+        <v>-444</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-377</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-625</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-625</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-625</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-11699</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-1873</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-487</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-675</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-505</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-6433</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-585</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-615</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-830</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-6823</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-502</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-1452</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-387</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-7492</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-382</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-563</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-941</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-1141</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-626</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-1543</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-2082</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1247</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-984</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-544</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-682</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-572</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-329</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-1127</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-596</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-515</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-403</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-601</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-495</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-603</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-420</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-576</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-558</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-612</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>-654</v>
+      </c>
+      <c r="AX63" t="n">
         <v>-1001</v>
       </c>
-      <c r="F63" t="n">
-        <v>183</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-389</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-444</v>
-      </c>
-      <c r="I63" t="n">
-        <v>-377</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>-625</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-625</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-625</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-11699</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-1873</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-487</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-675</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-505</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-6433</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-585</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-615</v>
-      </c>
-      <c r="V63" t="n">
-        <v>-830</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-6823</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-502</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-1452</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-387</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-7492</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-382</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-563</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-941</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-1141</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-626</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-1543</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-2082</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>1247</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-984</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-544</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-682</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-572</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-329</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-1127</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-596</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-515</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-403</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-601</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-495</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-603</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-420</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-576</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-558</v>
-      </c>
       <c r="AY63" t="n">
-        <v>-612</v>
+        <v>-628</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-654</v>
+        <v>-415</v>
       </c>
       <c r="BA63" t="n">
-        <v>-1001</v>
+        <v>-497</v>
       </c>
       <c r="BB63" t="n">
-        <v>-628</v>
+        <v>-384</v>
       </c>
       <c r="BC63" t="n">
-        <v>-415</v>
+        <v>-430</v>
       </c>
       <c r="BD63" t="n">
-        <v>-497</v>
+        <v>-664</v>
       </c>
       <c r="BE63" t="n">
-        <v>-384</v>
+        <v>-724</v>
       </c>
       <c r="BF63" t="n">
-        <v>-430</v>
+        <v>-619</v>
       </c>
       <c r="BG63" t="n">
-        <v>-664</v>
+        <v>-516</v>
       </c>
       <c r="BH63" t="n">
-        <v>-724</v>
+        <v>-765</v>
       </c>
       <c r="BI63" t="n">
-        <v>-619</v>
+        <v>-759</v>
       </c>
     </row>
     <row r="64">
@@ -12128,9 +12116,15 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -12292,119 +12286,119 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="C65" t="n">
-        <v>303</v>
+        <v>521</v>
       </c>
       <c r="D65" t="n">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="E65" t="n">
-        <v>260</v>
+        <v>677</v>
       </c>
       <c r="F65" t="n">
-        <v>521</v>
-      </c>
-      <c r="G65" t="n">
-        <v>352</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>677</v>
+        <v>391</v>
       </c>
       <c r="I65" t="n">
-        <v>467</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>391</v>
+      </c>
+      <c r="J65" t="n">
+        <v>394</v>
+      </c>
       <c r="K65" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L65" t="n">
-        <v>391</v>
+        <v>753</v>
       </c>
       <c r="M65" t="n">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="N65" t="n">
-        <v>393</v>
+        <v>578</v>
       </c>
       <c r="O65" t="n">
-        <v>753</v>
+        <v>397</v>
       </c>
       <c r="P65" t="n">
-        <v>436</v>
+        <v>621</v>
       </c>
       <c r="Q65" t="n">
-        <v>578</v>
+        <v>481</v>
       </c>
       <c r="R65" t="n">
-        <v>397</v>
+        <v>287</v>
       </c>
       <c r="S65" t="n">
-        <v>621</v>
+        <v>291</v>
       </c>
       <c r="T65" t="n">
-        <v>481</v>
+        <v>288</v>
       </c>
       <c r="U65" t="n">
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="V65" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="W65" t="n">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="X65" t="n">
-        <v>453</v>
+        <v>3389</v>
       </c>
       <c r="Y65" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="Z65" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="AA65" t="n">
-        <v>3389</v>
+        <v>333</v>
       </c>
       <c r="AB65" t="n">
-        <v>143</v>
+        <v>2450</v>
       </c>
       <c r="AC65" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AD65" t="n">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="AE65" t="n">
-        <v>2450</v>
+        <v>400</v>
       </c>
       <c r="AF65" t="n">
         <v>152</v>
       </c>
       <c r="AG65" t="n">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="AH65" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1659</v>
+        <v>0</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AL65" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AM65" t="n">
         <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
@@ -12416,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>3871</v>
       </c>
       <c r="AS65" t="n">
         <v>0</v>
@@ -12425,10 +12419,10 @@
         <v>0</v>
       </c>
       <c r="AU65" t="n">
-        <v>3871</v>
+        <v>0</v>
       </c>
       <c r="AV65" t="n">
-        <v>0</v>
+        <v>2661</v>
       </c>
       <c r="AW65" t="n">
         <v>0</v>
@@ -12437,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>2661</v>
+        <v>0</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
@@ -12446,19 +12440,19 @@
         <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>4860</v>
       </c>
       <c r="BD65" t="n">
         <v>0</v>
       </c>
       <c r="BE65" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>4860</v>
+        <v>285</v>
       </c>
       <c r="BG65" t="n">
         <v>0</v>
@@ -12467,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="BI65" t="n">
-        <v>285</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -12483,30 +12477,30 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
         <v>-404</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>-404</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
@@ -12514,11 +12508,11 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
         <v>-404</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
@@ -12526,10 +12520,10 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-404</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>-490</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -12538,11 +12532,11 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
         <v>-490</v>
       </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
       <c r="Y66" t="n">
         <v>0</v>
       </c>
@@ -12550,34 +12544,34 @@
         <v>0</v>
       </c>
       <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
         <v>-490</v>
       </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
       <c r="AC66" t="n">
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="AE66" t="n">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>-162</v>
       </c>
       <c r="AG66" t="n">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>-162</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK66" t="n">
         <v>0</v>
@@ -12586,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
@@ -12676,16 +12670,16 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -12847,182 +12841,182 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-777</v>
+        <v>-808</v>
       </c>
       <c r="C68" t="n">
-        <v>-765</v>
+        <v>-1787</v>
       </c>
       <c r="D68" t="n">
-        <v>1089</v>
+        <v>-787</v>
       </c>
       <c r="E68" t="n">
-        <v>-808</v>
+        <v>-807</v>
       </c>
       <c r="F68" t="n">
-        <v>-1787</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-787</v>
-      </c>
+        <v>-832</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-807</v>
+        <v>-4113</v>
       </c>
       <c r="I68" t="n">
-        <v>-832</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>-4113</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-1</v>
+      </c>
       <c r="K68" t="n">
-        <v>-4113</v>
+        <v>-3306</v>
       </c>
       <c r="L68" t="n">
-        <v>-4113</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="N68" t="n">
-        <v>-3306</v>
+        <v>-1161</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="P68" t="n">
-        <v>25</v>
+        <v>-77</v>
       </c>
       <c r="Q68" t="n">
-        <v>-1161</v>
+        <v>-194</v>
       </c>
       <c r="R68" t="n">
-        <v>-222</v>
+        <v>-125</v>
       </c>
       <c r="S68" t="n">
-        <v>-77</v>
+        <v>-3035</v>
       </c>
       <c r="T68" t="n">
-        <v>-194</v>
+        <v>1434</v>
       </c>
       <c r="U68" t="n">
-        <v>-125</v>
+        <v>33</v>
       </c>
       <c r="V68" t="n">
-        <v>-3035</v>
+        <v>-3032</v>
       </c>
       <c r="W68" t="n">
-        <v>1434</v>
+        <v>-5762</v>
       </c>
       <c r="X68" t="n">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="Y68" t="n">
-        <v>-3032</v>
+        <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>-5762</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>-28315</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>-952</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="AE68" t="n">
-        <v>-28315</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>-952</v>
+        <v>-8252</v>
       </c>
       <c r="AG68" t="n">
-        <v>601</v>
+        <v>-843</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>-309</v>
       </c>
       <c r="AI68" t="n">
-        <v>-8252</v>
+        <v>-1323</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-843</v>
+        <v>-856</v>
       </c>
       <c r="AK68" t="n">
-        <v>-309</v>
+        <v>-143</v>
       </c>
       <c r="AL68" t="n">
-        <v>-1323</v>
+        <v>-198</v>
       </c>
       <c r="AM68" t="n">
-        <v>-856</v>
+        <v>-215</v>
       </c>
       <c r="AN68" t="n">
-        <v>-143</v>
+        <v>-2938</v>
       </c>
       <c r="AO68" t="n">
-        <v>-198</v>
+        <v>-227</v>
       </c>
       <c r="AP68" t="n">
-        <v>-215</v>
+        <v>-109</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-2938</v>
+        <v>-302</v>
       </c>
       <c r="AR68" t="n">
-        <v>-227</v>
+        <v>-2693</v>
       </c>
       <c r="AS68" t="n">
-        <v>-109</v>
+        <v>-73</v>
       </c>
       <c r="AT68" t="n">
-        <v>-302</v>
+        <v>-43</v>
       </c>
       <c r="AU68" t="n">
-        <v>-2693</v>
+        <v>-23</v>
       </c>
       <c r="AV68" t="n">
-        <v>-73</v>
+        <v>-2509</v>
       </c>
       <c r="AW68" t="n">
-        <v>-43</v>
+        <v>-46</v>
       </c>
       <c r="AX68" t="n">
-        <v>-23</v>
+        <v>-76</v>
       </c>
       <c r="AY68" t="n">
-        <v>-2509</v>
+        <v>-6518</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-46</v>
+        <v>-392</v>
       </c>
       <c r="BA68" t="n">
-        <v>-76</v>
+        <v>-356</v>
       </c>
       <c r="BB68" t="n">
-        <v>-6518</v>
+        <v>-403</v>
       </c>
       <c r="BC68" t="n">
-        <v>-392</v>
+        <v>-11404</v>
       </c>
       <c r="BD68" t="n">
-        <v>-356</v>
+        <v>-235</v>
       </c>
       <c r="BE68" t="n">
-        <v>-403</v>
+        <v>-196</v>
       </c>
       <c r="BF68" t="n">
-        <v>-11404</v>
+        <v>-445</v>
       </c>
       <c r="BG68" t="n">
-        <v>-235</v>
+        <v>-6189</v>
       </c>
       <c r="BH68" t="n">
-        <v>-196</v>
+        <v>-2455</v>
       </c>
       <c r="BI68" t="n">
-        <v>-445</v>
+        <v>658</v>
       </c>
     </row>
     <row r="69">
@@ -13046,48 +13040,48 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-3306</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3306</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N69" t="n">
-        <v>-3306</v>
+        <v>-1161</v>
       </c>
       <c r="O69" t="n">
-        <v>3306</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>25</v>
+        <v>1136</v>
       </c>
       <c r="Q69" t="n">
-        <v>-1161</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -13096,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>33</v>
+        <v>-33</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
@@ -13105,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
@@ -13207,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="BI69" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
@@ -13217,86 +13211,86 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-777</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>-765</v>
+        <v>-1787</v>
       </c>
       <c r="D70" t="n">
-        <v>2249</v>
+        <v>-787</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="F70" t="n">
-        <v>-1787</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-787</v>
-      </c>
+        <v>-832</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>2574</v>
+        <v>-4113</v>
       </c>
       <c r="I70" t="n">
-        <v>-832</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>-4113</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-1</v>
+      </c>
       <c r="K70" t="n">
-        <v>-4113</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-4113</v>
+        <v>4114</v>
       </c>
       <c r="M70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>4114</v>
+        <v>-222</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>-194</v>
       </c>
       <c r="R70" t="n">
-        <v>-222</v>
+        <v>-125</v>
       </c>
       <c r="S70" t="n">
-        <v>222</v>
+        <v>-3035</v>
       </c>
       <c r="T70" t="n">
-        <v>-194</v>
+        <v>3354</v>
       </c>
       <c r="U70" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>-3035</v>
+        <v>-3032</v>
       </c>
       <c r="W70" t="n">
-        <v>3354</v>
+        <v>-5762</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>8794</v>
       </c>
       <c r="Y70" t="n">
-        <v>-3032</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>-5762</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>8794</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>-952</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -13305,94 +13299,94 @@
         <v>0</v>
       </c>
       <c r="AF70" t="n">
-        <v>-952</v>
+        <v>952</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>-843</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>952</v>
+        <v>-1323</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-843</v>
+        <v>2166</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="AL70" t="n">
-        <v>-1323</v>
+        <v>0</v>
       </c>
       <c r="AM70" t="n">
-        <v>2166</v>
+        <v>-215</v>
       </c>
       <c r="AN70" t="n">
-        <v>-143</v>
+        <v>358</v>
       </c>
       <c r="AO70" t="n">
-        <v>0</v>
+        <v>-227</v>
       </c>
       <c r="AP70" t="n">
-        <v>-215</v>
+        <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>358</v>
+        <v>-302</v>
       </c>
       <c r="AR70" t="n">
-        <v>-227</v>
+        <v>529</v>
       </c>
       <c r="AS70" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AT70" t="n">
-        <v>-302</v>
+        <v>0</v>
       </c>
       <c r="AU70" t="n">
-        <v>529</v>
+        <v>-23</v>
       </c>
       <c r="AV70" t="n">
-        <v>-73</v>
+        <v>-2552</v>
       </c>
       <c r="AW70" t="n">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="AX70" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AY70" t="n">
-        <v>-2552</v>
+        <v>-6594</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-46</v>
+        <v>-392</v>
       </c>
       <c r="BA70" t="n">
         <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>-6594</v>
+        <v>-403</v>
       </c>
       <c r="BC70" t="n">
-        <v>-392</v>
+        <v>-11760</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="BE70" t="n">
-        <v>-403</v>
+        <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>-11760</v>
+        <v>-445</v>
       </c>
       <c r="BG70" t="n">
-        <v>-235</v>
+        <v>-6385</v>
       </c>
       <c r="BH70" t="n">
-        <v>0</v>
+        <v>-2455</v>
       </c>
       <c r="BI70" t="n">
-        <v>-445</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71">
@@ -13405,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -13414,17 +13408,11 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
         <v>731</v>
       </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -13488,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -13497,17 +13485,11 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
         <v>731</v>
       </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -13582,15 +13564,9 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -13651,182 +13627,182 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-805</v>
+        <v>-1549</v>
       </c>
       <c r="C74" t="n">
-        <v>-28</v>
+        <v>-1083</v>
       </c>
       <c r="D74" t="n">
-        <v>1396</v>
+        <v>-824</v>
       </c>
       <c r="E74" t="n">
-        <v>-1549</v>
+        <v>-978</v>
       </c>
       <c r="F74" t="n">
-        <v>-1083</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-824</v>
-      </c>
+        <v>-11</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-978</v>
+        <v>-4347</v>
       </c>
       <c r="I74" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>-4347</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-232</v>
+      </c>
       <c r="K74" t="n">
-        <v>-4347</v>
+        <v>-14612</v>
       </c>
       <c r="L74" t="n">
-        <v>-4347</v>
+        <v>-1524</v>
       </c>
       <c r="M74" t="n">
-        <v>-232</v>
+        <v>-26</v>
       </c>
       <c r="N74" t="n">
-        <v>-14612</v>
+        <v>-1258</v>
       </c>
       <c r="O74" t="n">
-        <v>-1524</v>
+        <v>-330</v>
       </c>
       <c r="P74" t="n">
-        <v>-26</v>
+        <v>-6293</v>
       </c>
       <c r="Q74" t="n">
-        <v>-1258</v>
+        <v>-298</v>
       </c>
       <c r="R74" t="n">
-        <v>-330</v>
+        <v>-453</v>
       </c>
       <c r="S74" t="n">
-        <v>-6293</v>
+        <v>-3574</v>
       </c>
       <c r="T74" t="n">
-        <v>-298</v>
+        <v>-5591</v>
       </c>
       <c r="U74" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V74" t="n">
+        <v>-4198</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-5989</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-4254</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>-239</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>-421</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>-608</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>-27496</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>-1426</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>-912</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>-1682</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>-7015</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>-21</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>-720</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>-1785</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>-1306</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>-212</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>-1103</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>-572</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>-3201</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>-373</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>-449</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>-440</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>932</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>-46</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>-325</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>-226</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>-80</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>-252</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>-613</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>-6765</v>
+      </c>
+      <c r="AZ74" t="n">
         <v>-453</v>
       </c>
-      <c r="V74" t="n">
-        <v>-3574</v>
-      </c>
-      <c r="W74" t="n">
-        <v>-5591</v>
-      </c>
-      <c r="X74" t="n">
-        <v>-16</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-4198</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>-5989</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>-4254</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>-239</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>-421</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>-608</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-27496</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>-1426</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>-912</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>-1682</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>-7015</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>-21</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>-720</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>-1785</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>-1306</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>-212</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-1103</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>-572</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-3201</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-373</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>-449</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-440</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>932</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-325</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>-226</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>-252</v>
-      </c>
       <c r="BA74" t="n">
-        <v>-613</v>
+        <v>-499</v>
       </c>
       <c r="BB74" t="n">
-        <v>-6765</v>
+        <v>-318</v>
       </c>
       <c r="BC74" t="n">
-        <v>-453</v>
+        <v>-6597</v>
       </c>
       <c r="BD74" t="n">
-        <v>-499</v>
+        <v>-380</v>
       </c>
       <c r="BE74" t="n">
-        <v>-318</v>
+        <v>-338</v>
       </c>
       <c r="BF74" t="n">
-        <v>-6597</v>
+        <v>-194</v>
       </c>
       <c r="BG74" t="n">
-        <v>-380</v>
+        <v>-6113</v>
       </c>
       <c r="BH74" t="n">
-        <v>-338</v>
+        <v>-2631</v>
       </c>
       <c r="BI74" t="n">
-        <v>-194</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75">
@@ -13850,16 +13826,16 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
@@ -14035,16 +14011,16 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
@@ -14220,15 +14196,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -14303,15 +14273,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -14439,182 +14403,182 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-805</v>
+        <v>-1549</v>
       </c>
       <c r="C80" t="n">
-        <v>-28</v>
+        <v>-1083</v>
       </c>
       <c r="D80" t="n">
-        <v>1396</v>
+        <v>-824</v>
       </c>
       <c r="E80" t="n">
-        <v>-1549</v>
+        <v>-978</v>
       </c>
       <c r="F80" t="n">
-        <v>-1083</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-824</v>
-      </c>
+        <v>-11</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-978</v>
+        <v>-3790</v>
       </c>
       <c r="I80" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>-3790</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-232</v>
+      </c>
       <c r="K80" t="n">
-        <v>-3790</v>
+        <v>-14612</v>
       </c>
       <c r="L80" t="n">
-        <v>-3790</v>
+        <v>-1209</v>
       </c>
       <c r="M80" t="n">
-        <v>-232</v>
+        <v>-26</v>
       </c>
       <c r="N80" t="n">
-        <v>-14612</v>
+        <v>-1258</v>
       </c>
       <c r="O80" t="n">
-        <v>-1209</v>
+        <v>-330</v>
       </c>
       <c r="P80" t="n">
-        <v>-26</v>
+        <v>-5972</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1258</v>
+        <v>-298</v>
       </c>
       <c r="R80" t="n">
-        <v>-330</v>
+        <v>-453</v>
       </c>
       <c r="S80" t="n">
-        <v>-5972</v>
+        <v>-3574</v>
       </c>
       <c r="T80" t="n">
-        <v>-298</v>
+        <v>-4120</v>
       </c>
       <c r="U80" t="n">
+        <v>-16</v>
+      </c>
+      <c r="V80" t="n">
+        <v>-4198</v>
+      </c>
+      <c r="W80" t="n">
+        <v>-5989</v>
+      </c>
+      <c r="X80" t="n">
+        <v>-4254</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>-239</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>-421</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>-608</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>-27496</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>-1426</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>-912</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>-1682</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>-7015</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>-21</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>-720</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>-1785</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>-1306</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>-212</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>-1103</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>-572</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>-3201</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>-373</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>-449</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>-440</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>932</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>-46</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>-325</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>-226</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>-80</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>-252</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>-613</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>-6765</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>-453</v>
       </c>
-      <c r="V80" t="n">
-        <v>-3574</v>
-      </c>
-      <c r="W80" t="n">
-        <v>-4120</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-16</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>-4198</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>-5989</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>-4254</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>-239</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>-421</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>-608</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-27496</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>-1426</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>-912</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>-1682</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>-7015</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>-21</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>-720</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>-1785</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>-1306</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>-212</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>-1103</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>-572</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>-3201</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>-373</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>-449</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>-440</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>932</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>-325</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>-226</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>-252</v>
-      </c>
       <c r="BA80" t="n">
-        <v>-613</v>
+        <v>-499</v>
       </c>
       <c r="BB80" t="n">
-        <v>-6765</v>
+        <v>-318</v>
       </c>
       <c r="BC80" t="n">
-        <v>-453</v>
+        <v>-6597</v>
       </c>
       <c r="BD80" t="n">
-        <v>-499</v>
+        <v>-380</v>
       </c>
       <c r="BE80" t="n">
-        <v>-318</v>
+        <v>-338</v>
       </c>
       <c r="BF80" t="n">
-        <v>-6597</v>
+        <v>-194</v>
       </c>
       <c r="BG80" t="n">
-        <v>-380</v>
+        <v>-6113</v>
       </c>
       <c r="BH80" t="n">
-        <v>-338</v>
+        <v>-2631</v>
       </c>
       <c r="BI80" t="n">
-        <v>-194</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
